--- a/config_debug/bullet_rank_match_server.xlsx
+++ b/config_debug/bullet_rank_match_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" tabRatio="782"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" tabRatio="782" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="23" r:id="rId1"/>
@@ -976,7 +976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2056,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2099,7 +2099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -2109,10 +2109,10 @@
       <c r="C2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="3">
         <v>1000</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="3">
         <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2122,7 +2122,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -2132,17 +2132,17 @@
       <c r="C3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="3">
         <v>2000000</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="3">
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -2152,17 +2152,17 @@
       <c r="C4" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="3">
         <v>10000</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="3">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -2172,17 +2172,17 @@
       <c r="C5" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="30">
-        <v>2000000</v>
-      </c>
-      <c r="E5" s="29">
+      <c r="D5" s="3">
+        <v>20000000</v>
+      </c>
+      <c r="E5" s="3">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -2192,14 +2192,14 @@
       <c r="C6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="3">
         <v>100000</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -2209,10 +2209,10 @@
       <c r="C7" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="3">
         <v>1000000</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="3">
         <v>3</v>
       </c>
       <c r="F7" s="4"/>

--- a/config_debug/bullet_rank_match_server.xlsx
+++ b/config_debug/bullet_rank_match_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" tabRatio="782" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" tabRatio="782"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="23" r:id="rId1"/>
@@ -17,41 +17,15 @@
     <sheet name="data|比赛数据" sheetId="29" r:id="rId3"/>
     <sheet name="rank|排名数据" sheetId="30" r:id="rId4"/>
     <sheet name="signup_spend|报名费" sheetId="33" r:id="rId5"/>
-    <sheet name="enter|进入条件配置" sheetId="27" r:id="rId6"/>
-    <sheet name="score_award|奖励配置" sheetId="28" r:id="rId7"/>
-    <sheet name="everyday_rank|每日奖励" sheetId="31" r:id="rId8"/>
-    <sheet name="everyday_award|每日奖励具体" sheetId="32" r:id="rId9"/>
+    <sheet name="score_award|奖励配置" sheetId="28" r:id="rId6"/>
+    <sheet name="everyday_rank|每日奖励" sheetId="31" r:id="rId7"/>
+    <sheet name="everyday_award|每日奖励具体" sheetId="32" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>yang yang</author>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>必须是数组
-按顺序进行优先使用资产</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>yang yang</author>
@@ -102,7 +76,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
@@ -137,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="84">
   <si>
     <t>id|</t>
   </si>
@@ -151,9 +125,6 @@
     <t>data_id|比赛数据</t>
   </si>
   <si>
-    <t>enter_id|进入条件</t>
-  </si>
-  <si>
     <t>everyday_rank_id|每日榜单排行</t>
   </si>
   <si>
@@ -223,9 +194,6 @@
     <t>id|行号</t>
   </si>
   <si>
-    <t>enter_id|进入条件id</t>
-  </si>
-  <si>
     <t>asset_type|财富类型</t>
   </si>
   <si>
@@ -320,7 +288,7 @@
   </si>
   <si>
     <t>rank_id|排名数据id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -336,7 +304,7 @@
       </rPr>
       <t>id</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
@@ -366,68 +334,68 @@
     <t>12</t>
   </si>
   <si>
+    <t>signup_spend_id|进入条件id</t>
+  </si>
+  <si>
+    <t>prop_gns_ticket</t>
+  </si>
+  <si>
+    <t>signup_spend_id|报名费id</t>
+  </si>
+  <si>
+    <t>50福利券赛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>200福利券赛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>500福利券赛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000福利券赛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500,99999999999</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2800,3499</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,2799</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=100红包券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>4,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>signup_spend_id|进入条件id</t>
-  </si>
-  <si>
-    <t>prop_gns_ticket</t>
-  </si>
-  <si>
-    <t>signup_spend_id|报名费id</t>
-  </si>
-  <si>
-    <t>50福利券赛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>200福利券赛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>500福利券赛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000福利券赛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3500,99999999999</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2800,3499</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,2799</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=100红包券</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,12 +409,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF191F25"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -532,19 +494,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF191F25"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -594,19 +543,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -615,17 +564,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -638,9 +587,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,49 +596,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -973,11 +904,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -985,13 +916,12 @@
     <col min="2" max="2" width="28.375" customWidth="1"/>
     <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="5" width="25.875" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="25.125" customWidth="1"/>
-    <col min="8" max="8" width="34.75" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="34.75" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,144 +934,129 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+    </row>
+    <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="19">
+      <c r="B2" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="18">
         <v>1</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="19">
         <v>1</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="20">
+      <c r="G2" s="18">
         <v>1</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="18">
         <v>1</v>
       </c>
-      <c r="I2" s="19">
+    </row>
+    <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="18">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="18">
+        <v>2</v>
+      </c>
+      <c r="G3" s="18">
+        <v>2</v>
+      </c>
+      <c r="H3" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="19">
-        <v>2</v>
-      </c>
-      <c r="D3" s="19">
-        <v>2</v>
-      </c>
-      <c r="E3" s="32">
-        <v>2</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="19">
-        <v>2</v>
-      </c>
-      <c r="H3" s="19">
-        <v>2</v>
-      </c>
-      <c r="I3" s="19">
+    <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="18">
+        <v>3</v>
+      </c>
+      <c r="D4" s="18">
+        <v>3</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="18">
+        <v>3</v>
+      </c>
+      <c r="G4" s="18">
+        <v>3</v>
+      </c>
+      <c r="H4" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="19">
-        <v>3</v>
-      </c>
-      <c r="D4" s="19">
-        <v>3</v>
-      </c>
-      <c r="E4" s="32">
-        <v>3</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="19">
-        <v>3</v>
-      </c>
-      <c r="H4" s="19">
-        <v>3</v>
-      </c>
-      <c r="I4" s="19">
+    <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="18">
+        <v>4</v>
+      </c>
+      <c r="D5" s="18">
+        <v>4</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="18">
+        <v>4</v>
+      </c>
+      <c r="G5" s="18">
+        <v>4</v>
+      </c>
+      <c r="H5" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="19">
-        <v>4</v>
-      </c>
-      <c r="D5" s="19">
-        <v>4</v>
-      </c>
-      <c r="E5" s="32">
-        <v>4</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="19">
-        <v>4</v>
-      </c>
-      <c r="H5" s="19">
-        <v>4</v>
-      </c>
-      <c r="I5" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -1149,165 +1064,148 @@
       <c r="D6" s="10">
         <v>2</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
-        <v>8</v>
+      <c r="E6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="16"/>
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="16"/>
       <c r="B12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="16"/>
       <c r="B13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="16"/>
       <c r="B14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="16"/>
       <c r="B15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="16"/>
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="17"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="16"/>
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="17"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="16"/>
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="16"/>
       <c r="B21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="16"/>
       <c r="B22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="17"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="16"/>
       <c r="B23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1332,16 +1230,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1354,11 +1252,11 @@
       <c r="C2" s="3">
         <v>600</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="20">
         <v>200</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1371,11 +1269,11 @@
       <c r="C3" s="3">
         <v>600</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>200</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1388,11 +1286,11 @@
       <c r="C4" s="3">
         <v>600</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>200</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1405,11 +1303,11 @@
       <c r="C5" s="3">
         <v>600</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>200</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>16</v>
+      <c r="E5" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1422,7 +1320,7 @@
       <c r="C6" s="3">
         <v>900</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>200</v>
       </c>
     </row>
@@ -1457,7 +1355,7 @@
       <c r="D12" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>
@@ -1488,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1511,10 +1409,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
@@ -1523,7 +1421,7 @@
         <v>1000</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="3"/>
@@ -1534,10 +1432,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D3" s="3">
         <v>3</v>
@@ -1546,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="3"/>
@@ -1557,10 +1455,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="3">
         <v>4</v>
@@ -1569,7 +1467,7 @@
         <v>1000</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1577,10 +1475,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D5" s="3">
         <v>5</v>
@@ -1589,7 +1487,7 @@
         <v>1000</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1597,10 +1495,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -1609,14 +1507,14 @@
         <v>1500</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C8" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -1640,20 +1538,20 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>60</v>
+      <c r="B1" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -1668,10 +1566,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="3"/>
@@ -1687,10 +1585,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="3"/>
@@ -1706,10 +1604,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1723,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1740,10 +1638,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1757,10 +1655,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1774,10 +1672,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1791,10 +1689,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1808,10 +1706,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="13"/>
@@ -1827,10 +1725,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="13"/>
@@ -1846,10 +1744,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="13"/>
@@ -1865,10 +1763,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="13"/>
@@ -1886,7 +1784,7 @@
       <c r="I16" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1896,7 +1794,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1911,494 +1809,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="24" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="D2" s="25">
+        <v>5000</v>
+      </c>
+      <c r="E2" s="24">
+        <v>1</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="25">
+      <c r="H2" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24">
+        <v>2</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="25">
+      <c r="E3" s="24">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="26">
-        <v>5000</v>
-      </c>
-      <c r="E2" s="25">
-        <v>2</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24">
+        <v>3</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="25">
+        <v>20000</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25">
-        <v>2</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="26">
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24">
+        <v>4</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="25">
+        <v>50000</v>
+      </c>
+      <c r="E5" s="24">
         <v>1</v>
       </c>
-      <c r="E3" s="25">
-        <v>2</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="25">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25">
-        <v>2</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="26">
-        <v>20000</v>
-      </c>
-      <c r="E4" s="25">
-        <v>2</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="25">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25">
-        <v>3</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="26">
-        <v>50000</v>
-      </c>
-      <c r="E5" s="25">
-        <v>2</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="25">
-        <v>4</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="26">
+      <c r="B6" s="24">
+        <v>5</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="25">
         <v>100000</v>
       </c>
-      <c r="E6" s="25">
-        <v>2</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="E6" s="24">
+        <v>1</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H75"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="37.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="28">
-        <v>1</v>
-      </c>
-      <c r="B2" s="29">
-        <v>1</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="28">
-        <v>2</v>
-      </c>
-      <c r="B3" s="29">
-        <v>1</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="28">
-        <v>3</v>
-      </c>
-      <c r="B4" s="29">
-        <v>2</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="28">
-        <v>4</v>
-      </c>
-      <c r="B5" s="29">
-        <v>2</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3">
-        <v>20000000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="28">
-        <v>5</v>
-      </c>
-      <c r="B6" s="29">
-        <v>3</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3">
-        <v>100000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="28">
-        <v>6</v>
-      </c>
-      <c r="B7" s="29">
-        <v>4</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C14" s="4"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D16" s="31"/>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="3:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D17" s="31"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F19" s="4"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C31" s="4"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C50" s="4"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C61" s="4"/>
-    </row>
-    <row r="66" spans="1:6" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C66" s="14"/>
-    </row>
-    <row r="67" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-    </row>
-    <row r="70" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2416,19 +1973,19 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2436,17 +1993,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2">
         <v>50</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -2454,30 +2011,30 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>30000</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>10000</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -2485,135 +2042,135 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2">
         <v>200</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>100000</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>50000</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2">
         <v>500</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>300000</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>100000</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2">
         <v>1000</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>500000</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>200000</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="8"/>
@@ -6280,13 +5837,13 @@
       <c r="H408" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -6301,16 +5858,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -6321,7 +5878,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -6335,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -6349,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -6363,7 +5920,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -6391,7 +5948,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="5">
         <v>6</v>
@@ -6405,7 +5962,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="5">
         <v>7</v>
@@ -6419,7 +5976,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
@@ -6433,7 +5990,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="5">
         <v>9</v>
@@ -6461,7 +6018,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="5">
         <v>11</v>
@@ -6475,7 +6032,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="5">
         <v>12</v>
@@ -6489,7 +6046,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="5">
         <v>13</v>
@@ -6503,7 +6060,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="5">
         <v>14</v>
@@ -6531,7 +6088,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="5">
         <v>16</v>
@@ -6545,7 +6102,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="5">
         <v>17</v>
@@ -6559,7 +6116,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="5">
         <v>18</v>
@@ -6573,7 +6130,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="5">
         <v>19</v>
@@ -6594,12 +6151,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -6617,19 +6174,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -6640,13 +6197,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2">
         <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -6657,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3">
         <v>100</v>
@@ -6671,7 +6228,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>5000</v>
@@ -6686,7 +6243,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>3000</v>
@@ -6701,7 +6258,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>2000</v>
@@ -6716,7 +6273,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>500</v>
@@ -6731,7 +6288,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2">
         <v>100</v>
@@ -6746,7 +6303,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>5000</v>
@@ -6761,7 +6318,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>3000</v>
@@ -6776,7 +6333,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>2000</v>
@@ -6791,7 +6348,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>500</v>
@@ -6806,7 +6363,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2">
         <v>100</v>
@@ -6821,7 +6378,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>5000</v>
@@ -6836,7 +6393,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>3000</v>
@@ -6851,7 +6408,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>2000</v>
@@ -6866,7 +6423,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>500</v>
@@ -6881,7 +6438,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2">
         <v>100</v>
@@ -6896,7 +6453,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>5000</v>
@@ -6911,7 +6468,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>3000</v>
@@ -6926,7 +6483,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>2000</v>
@@ -6941,7 +6498,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>500</v>
@@ -6949,7 +6506,7 @@
       <c r="E22" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/config_debug/bullet_rank_match_server.xlsx
+++ b/config_debug/bullet_rank_match_server.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="87">
   <si>
     <t>id|</t>
   </si>
@@ -125,9 +125,6 @@
     <t>data_id|比赛数据</t>
   </si>
   <si>
-    <t>everyday_rank_id|每日榜单排行</t>
-  </si>
-  <si>
     <t>enable|开关</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
     <t>shop_gold_sum</t>
   </si>
   <si>
-    <t>1=0.1元红包券</t>
-  </si>
-  <si>
     <t>rank_id|奖励配置id</t>
   </si>
   <si>
@@ -279,9 +273,6 @@
   </si>
   <si>
     <t>3,3</t>
-  </si>
-  <si>
-    <t>4,50</t>
   </si>
   <si>
     <t>rank_award_id|排名对应奖励id</t>
@@ -359,18 +350,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>3500,99999999999</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2800,3499</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,2799</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1=100红包券</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -388,6 +367,42 @@
   </si>
   <si>
     <t>5,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>everyday_rank_id|每日榜单排行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500,99999999999</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1201,1499</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000福利</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +563,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -624,6 +639,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -908,7 +932,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -935,16 +959,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -952,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="18">
         <v>1</v>
@@ -961,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F2" s="19">
         <v>1</v>
@@ -978,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" s="18">
         <v>2</v>
@@ -987,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F3" s="18">
         <v>2</v>
@@ -1004,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="18">
         <v>3</v>
@@ -1013,7 +1037,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F4" s="18">
         <v>3</v>
@@ -1030,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="18">
         <v>4</v>
@@ -1039,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F5" s="18">
         <v>4</v>
@@ -1056,7 +1080,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -1065,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1230,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1256,7 +1280,7 @@
         <v>200</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1273,7 +1297,7 @@
         <v>200</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1290,7 +1314,7 @@
         <v>200</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1307,7 +1331,7 @@
         <v>200</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1367,7 +1391,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1386,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1409,10 +1433,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
@@ -1421,7 +1445,7 @@
         <v>1000</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="3"/>
@@ -1432,10 +1456,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D3" s="3">
         <v>3</v>
@@ -1444,7 +1468,7 @@
         <v>1000</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="3"/>
@@ -1455,10 +1479,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="3">
         <v>4</v>
@@ -1467,7 +1491,7 @@
         <v>1000</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1475,10 +1499,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="3">
         <v>5</v>
@@ -1487,7 +1511,7 @@
         <v>1000</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1495,10 +1519,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -1507,7 +1531,7 @@
         <v>1500</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1525,7 +1549,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D13"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1539,19 +1563,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -1566,10 +1590,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="3"/>
@@ -1585,10 +1609,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="3"/>
@@ -1604,10 +1628,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1621,10 +1645,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1638,10 +1662,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1655,10 +1679,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1672,10 +1696,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1689,10 +1713,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1706,10 +1730,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="13"/>
@@ -1725,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="13"/>
@@ -1744,10 +1768,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="13"/>
@@ -1763,10 +1787,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="13"/>
@@ -1810,28 +1834,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -1842,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="25">
         <v>5000</v>
@@ -1852,10 +1876,10 @@
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>34</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1866,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D3" s="25">
         <v>1</v>
@@ -1876,7 +1900,7 @@
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="24"/>
     </row>
@@ -1888,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="25">
         <v>20000</v>
@@ -1898,7 +1922,7 @@
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="24"/>
     </row>
@@ -1910,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="25">
         <v>50000</v>
@@ -1920,7 +1944,7 @@
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="24"/>
     </row>
@@ -1932,7 +1956,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="25">
         <v>100000</v>
@@ -1973,19 +1997,19 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1993,17 +2017,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2">
         <v>50</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -2011,10 +2035,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>30000</v>
@@ -2026,10 +2050,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>10000</v>
@@ -2042,10 +2066,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2">
         <v>200</v>
@@ -2057,10 +2081,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>100000</v>
@@ -2072,10 +2096,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>50000</v>
@@ -2087,10 +2111,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2">
         <v>500</v>
@@ -2102,10 +2126,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>300000</v>
@@ -2117,10 +2141,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>100000</v>
@@ -2132,10 +2156,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2">
         <v>1000</v>
@@ -2147,10 +2171,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>500000</v>
@@ -2162,10 +2186,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>200000</v>
@@ -5845,10 +5869,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5858,16 +5882,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5878,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -5892,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -5906,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -5920,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -5931,12 +5955,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>51100</v>
-      </c>
-      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2">
         <v>5</v>
       </c>
     </row>
@@ -5948,9 +5972,9 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="5">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5962,9 +5986,9 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="5">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2">
         <v>7</v>
       </c>
     </row>
@@ -5976,9 +6000,9 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="5">
+        <v>82</v>
+      </c>
+      <c r="D9" s="2">
         <v>8</v>
       </c>
     </row>
@@ -5986,13 +6010,13 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>2</v>
+      <c r="B10" s="6">
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="5">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2">
         <v>9</v>
       </c>
     </row>
@@ -6000,13 +6024,13 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5">
-        <v>51100</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2">
         <v>10</v>
       </c>
     </row>
@@ -6014,13 +6038,13 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="6">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2">
         <v>11</v>
       </c>
     </row>
@@ -6028,13 +6052,13 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="6">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="5">
+        <v>82</v>
+      </c>
+      <c r="D13" s="2">
         <v>12</v>
       </c>
     </row>
@@ -6042,13 +6066,13 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
-        <v>3</v>
+      <c r="B14" s="6">
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="5">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2">
         <v>13</v>
       </c>
     </row>
@@ -6057,12 +6081,12 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="5">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2">
         <v>14</v>
       </c>
     </row>
@@ -6071,12 +6095,12 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5">
-        <v>51100</v>
-      </c>
-      <c r="D16" s="5">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2">
         <v>15</v>
       </c>
     </row>
@@ -6088,67 +6112,81 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="5">
+        <v>82</v>
+      </c>
+      <c r="D17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="5">
-        <v>17</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="5">
-        <v>18</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="5">
-        <v>19</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5">
-        <v>51100</v>
-      </c>
-      <c r="D21" s="5">
-        <v>20</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="2"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="2"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -6158,260 +6196,265 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="40.875" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="4" width="28.375" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2">
-        <v>100</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="27">
+        <v>2500</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1500</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3000</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="27">
+        <v>700</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2000</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5000</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2">
-        <v>500</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="2">
-        <v>100</v>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2000</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1400.0000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3000</v>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="27">
+        <v>12500</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="27">
+        <v>7500</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2">
-        <v>500</v>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="27">
+        <v>5000</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="2">
-        <v>100</v>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="27">
+        <v>3500.0000000000005</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="6">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3000</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="6">
+        <v>15000</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2000</v>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="6">
+        <v>10000</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -6419,90 +6462,49 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="2">
-        <v>500</v>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="6">
+        <v>7000.0000000000009</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="2">
-        <v>100</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3000</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2000</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="2">
-        <v>500</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
   </sheetData>

--- a/config_debug/bullet_rank_match_server.xlsx
+++ b/config_debug/bullet_rank_match_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" tabRatio="782"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" tabRatio="782" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="23" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="everyday_rank|每日奖励" sheetId="31" r:id="rId7"/>
     <sheet name="everyday_award|每日奖励具体" sheetId="32" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
   <si>
     <t>id|</t>
   </si>
@@ -313,9 +313,6 @@
     <t>signup_spend_id|进入条件id</t>
   </si>
   <si>
-    <t>prop_gns_ticket</t>
-  </si>
-  <si>
     <t>signup_spend_id|报名费id</t>
   </si>
   <si>
@@ -339,22 +336,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>everyday_rank_id|每日榜单排行</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -392,6 +373,54 @@
   </si>
   <si>
     <t>rank_limit_min|最小上榜分数</t>
+  </si>
+  <si>
+    <t>obj_3d_50flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_50flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_200flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_200flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_500flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_500flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_1000flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_1000flq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12,13,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8,9,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -551,7 +580,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,6 +665,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -919,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -947,13 +985,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -964,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="18">
         <v>1</v>
@@ -973,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F2" s="19">
         <v>1</v>
@@ -990,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="18">
         <v>2</v>
@@ -999,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F3" s="18">
         <v>2</v>
@@ -1016,7 +1054,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="18">
         <v>3</v>
@@ -1025,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F4" s="18">
         <v>3</v>
@@ -1042,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="18">
         <v>4</v>
@@ -1051,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F5" s="18">
         <v>4</v>
@@ -1364,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -1535,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>36</v>
@@ -1554,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>37</v>
@@ -1573,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>38</v>
@@ -1590,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>52</v>
@@ -1607,7 +1645,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>53</v>
@@ -1624,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>54</v>
@@ -1641,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>55</v>
@@ -1658,7 +1696,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>56</v>
@@ -1675,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>57</v>
@@ -1694,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>58</v>
@@ -1713,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>59</v>
@@ -1732,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>60</v>
@@ -1760,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1810,11 +1848,11 @@
       <c r="B2" s="24">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>27</v>
+      <c r="C2" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="D2" s="25">
-        <v>5000</v>
+        <v>1</v>
       </c>
       <c r="E2" s="24">
         <v>1</v>
@@ -1834,10 +1872,10 @@
       <c r="B3" s="24">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="25">
+      <c r="C3" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="24">
@@ -1860,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="25">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="24">
         <v>1</v>
@@ -1878,11 +1916,11 @@
       <c r="B5" s="24">
         <v>4</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>27</v>
+      <c r="C5" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="D5" s="25">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="E5" s="24">
         <v>1</v>
@@ -1900,11 +1938,11 @@
       <c r="B6" s="24">
         <v>5</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="25">
-        <v>100000</v>
+      <c r="C6" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6" s="24">
         <v>1</v>
@@ -1912,6 +1950,125 @@
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24">
+        <v>6</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="25">
+        <v>20000</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24">
+        <v>7</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24">
+        <v>8</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24">
+        <v>9</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="25">
+        <v>50000</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="24">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24">
+        <v>10</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="24">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24">
+        <v>11</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="24">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24">
+        <v>12</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="25">
+        <v>100000</v>
+      </c>
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -1972,7 +2129,7 @@
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -5889,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -5945,7 +6102,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2">
         <v>8</v>
@@ -6001,7 +6158,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2">
         <v>12</v>
@@ -6057,7 +6214,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2">
         <v>16</v>
@@ -6201,7 +6358,7 @@
         <v>1500</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -6263,7 +6420,7 @@
         <v>3000</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -6324,7 +6481,7 @@
         <v>7500</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -6385,7 +6542,7 @@
         <v>15000</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">

--- a/config_debug/bullet_rank_match_server.xlsx
+++ b/config_debug/bullet_rank_match_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" tabRatio="782" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" tabRatio="782" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="23" r:id="rId1"/>
@@ -342,18 +342,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1500,99999999999</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1201,1499</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,1200</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>4,10</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -471,6 +459,18 @@
   </si>
   <si>
     <t>65580,83640</t>
+  </si>
+  <si>
+    <t>1300,99999999999</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1299</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>600,999</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1067,10 +1067,10 @@
         <v>4</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F2" s="19">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F3" s="18">
         <v>2</v>
@@ -1151,7 +1151,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F4" s="18">
         <v>3</v>
@@ -1183,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F5" s="18">
         <v>4</v>
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1395,7 +1395,7 @@
         <v>1500</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1457,7 +1457,7 @@
         <v>3000</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1518,7 +1518,7 @@
         <v>7500</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1579,7 +1579,7 @@
         <v>15000</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1656,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1671,16 +1671,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1691,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D2" s="33">
         <v>10</v>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D3" s="33">
         <v>2</v>
@@ -1719,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" s="33">
         <v>10</v>
@@ -1733,7 +1733,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D5" s="33">
         <v>2</v>
@@ -1747,7 +1747,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" s="33">
         <v>10</v>
@@ -1761,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D7" s="33">
         <v>1</v>
@@ -1775,7 +1775,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D8" s="33">
         <v>10</v>
@@ -1789,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D9" s="33">
         <v>1</v>
@@ -1806,7 +1806,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1823,16 +1823,16 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D2" s="33">
         <v>15</v>
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D3" s="33">
         <v>5</v>
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D4" s="33">
         <v>10</v>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D5" s="33">
         <v>30</v>
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" s="33">
         <v>40</v>
@@ -1933,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" s="33">
         <v>15</v>
@@ -1947,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D8" s="33">
         <v>5</v>
@@ -1961,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D9" s="33">
         <v>10</v>
@@ -1977,7 +1977,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" s="33">
         <v>30</v>
@@ -1993,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D11" s="33">
         <v>40</v>
@@ -2009,7 +2009,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D12" s="33">
         <v>15</v>
@@ -2025,7 +2025,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13" s="33">
         <v>5</v>
@@ -2041,7 +2041,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D14" s="33">
         <v>10</v>
@@ -2057,7 +2057,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D15" s="33">
         <v>30</v>
@@ -2073,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D16" s="33">
         <v>40</v>
@@ -2089,7 +2089,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D17" s="33">
         <v>15</v>
@@ -2105,7 +2105,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D18" s="33">
         <v>5</v>
@@ -2121,7 +2121,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D19" s="33">
         <v>10</v>
@@ -2137,7 +2137,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D20" s="33">
         <v>30</v>
@@ -2153,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D21" s="33">
         <v>40</v>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2353,7 +2353,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2378,7 +2378,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -2404,7 +2404,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="3">
-        <v>1201</v>
+        <v>600</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
@@ -2430,7 +2430,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="3">
-        <v>1201</v>
+        <v>600</v>
       </c>
       <c r="E3" s="3">
         <v>3</v>
@@ -2456,7 +2456,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="3">
-        <v>1201</v>
+        <v>600</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2479,7 +2479,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="3">
-        <v>1201</v>
+        <v>600</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
@@ -2508,7 +2508,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2549,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>36</v>
@@ -2568,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>37</v>
@@ -2587,7 +2587,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>38</v>
@@ -2604,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>52</v>
@@ -2621,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>53</v>
@@ -2638,7 +2638,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>54</v>
@@ -2655,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>55</v>
@@ -2672,7 +2672,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>56</v>
@@ -2689,7 +2689,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>57</v>
@@ -2708,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>58</v>
@@ -2727,7 +2727,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>59</v>
@@ -2746,7 +2746,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>60</v>
@@ -2777,7 +2777,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2825,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" s="25">
         <v>1</v>
@@ -2849,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2893,7 +2893,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="25">
         <v>1</v>
@@ -2915,7 +2915,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2952,7 +2952,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" s="25">
         <v>1</v>
@@ -2969,7 +2969,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3003,7 +3003,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="25">
         <v>1</v>
@@ -3020,7 +3020,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3057,7 +3057,7 @@
   <dimension ref="A1:H408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6950,7 +6950,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7022,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -7078,7 +7078,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2">
         <v>8</v>
@@ -7134,7 +7134,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2">
         <v>12</v>
@@ -7190,7 +7190,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2">
         <v>16</v>

--- a/config_debug/bullet_rank_match_server.xlsx
+++ b/config_debug/bullet_rank_match_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" tabRatio="782" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12675" tabRatio="782"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="23" r:id="rId1"/>
@@ -461,7 +461,7 @@
     <t>65580,83640</t>
   </si>
   <si>
-    <t>1300,99999999999</t>
+    <t>1500,99999999999</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -469,7 +469,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>600,999</t>
+    <t>1300,1499</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1657,7 +1657,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1806,7 +1806,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2353,7 +2353,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2404,7 +2404,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
@@ -2430,7 +2430,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="3">
         <v>3</v>
@@ -2456,7 +2456,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -2479,7 +2479,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
@@ -2508,7 +2508,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2568,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>37</v>
@@ -2587,7 +2587,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>38</v>
@@ -2621,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>53</v>
@@ -2638,7 +2638,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>54</v>
@@ -2672,7 +2672,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>56</v>
@@ -2689,7 +2689,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>57</v>
@@ -2727,7 +2727,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>59</v>
@@ -2746,7 +2746,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>60</v>
@@ -2777,7 +2777,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3057,7 +3057,7 @@
   <dimension ref="A1:H408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6950,7 +6950,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/config_debug/bullet_rank_match_server.xlsx
+++ b/config_debug/bullet_rank_match_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782" activeTab="5"/>
+    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="23" r:id="rId1"/>
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1346,7 +1346,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="41">
         <v>4</v>
@@ -5308,7 +5308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/bullet_rank_match_server.xlsx
+++ b/config_debug/bullet_rank_match_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782"/>
+    <workbookView xWindow="-38400" yWindow="465" windowWidth="38400" windowHeight="21135" tabRatio="782" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="23" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="121">
   <si>
     <t>id|</t>
   </si>
@@ -523,6 +523,10 @@
   </si>
   <si>
     <t>0,99999999999</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,100</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1127,7 +1131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F23:F24"/>
     </sheetView>
   </sheetViews>
@@ -1497,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1835,8 +1839,8 @@
       <c r="B24" s="2">
         <v>5</v>
       </c>
-      <c r="C24" s="5">
-        <v>51100</v>
+      <c r="C24" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="D24" s="2">
         <v>23</v>
@@ -6101,7 +6105,7 @@
   <dimension ref="A1:F408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
